--- a/public/pdfs/StudentOnboarding.xlsx
+++ b/public/pdfs/StudentOnboarding.xlsx
@@ -1,37 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13D9195B-B13D-47E7-B00A-58A63E15CB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4420" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Student" sheetId="1" r:id="rId1"/>
+    <sheet name="upload_student_template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>First name</t>
   </si>
   <si>
-    <t>last name</t>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
   <si>
     <t>Gender</t>
   </si>
   <si>
-    <t>Date Of Birth (dd/mm/yyyy)</t>
+    <t>Date Of Birth</t>
   </si>
   <si>
     <t>Residential Address</t>
@@ -40,31 +47,94 @@
     <t>Local Government Area</t>
   </si>
   <si>
+    <t>Parent name</t>
+  </si>
+  <si>
     <t>Parent's Phone Number</t>
   </si>
   <si>
     <t>Parent Email</t>
   </si>
   <si>
-    <t>Parent name</t>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Class Arm</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>FEMALE</t>
+  </si>
+  <si>
+    <t>67 OWINA STREET OFF IGBESANMWAN ROAD BENIN CITY</t>
+  </si>
+  <si>
+    <t>UHUNMWODE</t>
+  </si>
+  <si>
+    <t>MR &amp; MRS AIFUWA</t>
+  </si>
+  <si>
+    <t>helloparent@gmail.com</t>
+  </si>
+  <si>
+    <t>SSS 3 - SOS</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Tessas</t>
+  </si>
+  <si>
+    <t>Segunteesas@gmail.com</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>Segun</t>
+  </si>
+  <si>
+    <t>Omiye</t>
+  </si>
+  <si>
+    <t>Vincent@gmail.com</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>helloworld77@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-461]mm/dd/yyyy;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,18 +154,94 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -108,56 +254,116 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -300,56 +506,3317 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="1" max="1" width="20.7265625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" customWidth="1"/>
+    <col min="7" max="7" width="22.08984375" customWidth="1"/>
+    <col min="8" max="8" width="16.36328125" customWidth="1"/>
+    <col min="9" max="9" width="22.7265625" customWidth="1"/>
+    <col min="10" max="10" width="31.453125" customWidth="1"/>
+    <col min="11" max="11" width="14.1796875" customWidth="1"/>
+    <col min="12" max="12" width="18.90625" customWidth="1"/>
+    <col min="13" max="65" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1">
+        <v>38481</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2">
+        <v>8089246888</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1">
+        <v>40119</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3">
+        <v>8089246008</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1">
+        <v>40585</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4">
+        <v>8089246748</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E5" s="1"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E6" s="1"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E7" s="1"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E8" s="1"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E9" s="1"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E10" s="1"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E11" s="1"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E12" s="1"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E13" s="1"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E14" s="1"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E15" s="1"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E16" s="1"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E17" s="1"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E18" s="1"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E19" s="1"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E20" s="1"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E21" s="1"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E22" s="1"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E23" s="1"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E24" s="1"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E25" s="1"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E26" s="1"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E27" s="1"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E28" s="1"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E29" s="1"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E30" s="1"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E31" s="1"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E32" s="1"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E33" s="1"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E34" s="1"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E35" s="1"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E36" s="1"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E37" s="1"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E38" s="1"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E39" s="1"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E40" s="1"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E41" s="1"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E42" s="1"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E43" s="1"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E44" s="1"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="3"/>
+    </row>
+    <row r="45" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E45" s="1"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="3"/>
+    </row>
+    <row r="46" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E46" s="1"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="3"/>
+    </row>
+    <row r="47" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E47" s="1"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="3"/>
+    </row>
+    <row r="48" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E48" s="1"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="3"/>
+    </row>
+    <row r="49" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E49" s="1"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E50" s="1"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="3"/>
+    </row>
+    <row r="51" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E51" s="1"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E52" s="1"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="3"/>
+    </row>
+    <row r="53" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E53" s="1"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="3"/>
+    </row>
+    <row r="54" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E54" s="1"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="3"/>
+    </row>
+    <row r="55" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E55" s="1"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E56" s="1"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="3"/>
+    </row>
+    <row r="57" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E57" s="1"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="3"/>
+    </row>
+    <row r="58" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E58" s="1"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="3"/>
+    </row>
+    <row r="59" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E59" s="1"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="3"/>
+    </row>
+    <row r="60" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E60" s="1"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="3"/>
+    </row>
+    <row r="61" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E61" s="1"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="3"/>
+    </row>
+    <row r="62" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E62" s="1"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="3"/>
+    </row>
+    <row r="63" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="K63" s="3"/>
+    </row>
+    <row r="64" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="K64" s="3"/>
+    </row>
+    <row r="65" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K65" s="3"/>
+    </row>
+    <row r="66" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K66" s="3"/>
+    </row>
+    <row r="67" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K67" s="3"/>
+    </row>
+    <row r="68" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K68" s="3"/>
+    </row>
+    <row r="69" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K69" s="3"/>
+    </row>
+    <row r="70" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K70" s="3"/>
+    </row>
+    <row r="71" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K71" s="3"/>
+    </row>
+    <row r="72" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K72" s="3"/>
+    </row>
+    <row r="73" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K73" s="3"/>
+    </row>
+    <row r="74" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K74" s="3"/>
+    </row>
+    <row r="75" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K75" s="3"/>
+    </row>
+    <row r="76" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K76" s="3"/>
+    </row>
+    <row r="77" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K77" s="3"/>
+    </row>
+    <row r="78" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K78" s="3"/>
+    </row>
+    <row r="79" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K79" s="3"/>
+    </row>
+    <row r="80" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K80" s="3"/>
+    </row>
+    <row r="81" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K81" s="3"/>
+    </row>
+    <row r="82" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K82" s="3"/>
+    </row>
+    <row r="83" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K83" s="3"/>
+    </row>
+    <row r="84" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K84" s="3"/>
+    </row>
+    <row r="85" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K85" s="3"/>
+    </row>
+    <row r="86" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K86" s="3"/>
+    </row>
+    <row r="87" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K87" s="3"/>
+    </row>
+    <row r="88" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K88" s="3"/>
+    </row>
+    <row r="89" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K89" s="3"/>
+    </row>
+    <row r="90" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K90" s="3"/>
+    </row>
+    <row r="91" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K91" s="3"/>
+    </row>
+    <row r="92" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K92" s="3"/>
+    </row>
+    <row r="93" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K93" s="3"/>
+    </row>
+    <row r="94" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K94" s="3"/>
+    </row>
+    <row r="95" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K95" s="3"/>
+    </row>
+    <row r="96" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K96" s="3"/>
+    </row>
+    <row r="97" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K97" s="3"/>
+    </row>
+    <row r="98" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K98" s="3"/>
+    </row>
+    <row r="99" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K99" s="3"/>
+    </row>
+    <row r="100" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K100" s="3"/>
+    </row>
+    <row r="101" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K101" s="3"/>
+    </row>
+    <row r="102" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K102" s="3"/>
+    </row>
+    <row r="103" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K103" s="3"/>
+    </row>
+    <row r="104" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K104" s="3"/>
+    </row>
+    <row r="105" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K105" s="3"/>
+    </row>
+    <row r="106" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K106" s="3"/>
+    </row>
+    <row r="107" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K107" s="3"/>
+    </row>
+    <row r="108" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K108" s="3"/>
+    </row>
+    <row r="109" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K109" s="3"/>
+    </row>
+    <row r="110" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K110" s="3"/>
+    </row>
+    <row r="111" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K111" s="3"/>
+    </row>
+    <row r="112" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K112" s="3"/>
+    </row>
+    <row r="113" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K113" s="3"/>
+    </row>
+    <row r="114" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K114" s="3"/>
+    </row>
+    <row r="115" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K115" s="3"/>
+    </row>
+    <row r="116" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K116" s="3"/>
+    </row>
+    <row r="117" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K117" s="3"/>
+    </row>
+    <row r="118" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K118" s="3"/>
+    </row>
+    <row r="119" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K119" s="3"/>
+    </row>
+    <row r="120" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K120" s="3"/>
+    </row>
+    <row r="121" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K121" s="3"/>
+    </row>
+    <row r="122" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K122" s="3"/>
+    </row>
+    <row r="123" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K123" s="3"/>
+    </row>
+    <row r="124" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K124" s="3"/>
+    </row>
+    <row r="125" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K125" s="3"/>
+    </row>
+    <row r="126" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K126" s="3"/>
+    </row>
+    <row r="127" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K127" s="3"/>
+    </row>
+    <row r="128" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K128" s="3"/>
+    </row>
+    <row r="129" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K129" s="3"/>
+    </row>
+    <row r="130" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K130" s="3"/>
+    </row>
+    <row r="131" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K131" s="3"/>
+    </row>
+    <row r="132" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K132" s="3"/>
+    </row>
+    <row r="133" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K133" s="3"/>
+    </row>
+    <row r="134" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K134" s="3"/>
+    </row>
+    <row r="135" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K135" s="3"/>
+    </row>
+    <row r="136" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K136" s="3"/>
+    </row>
+    <row r="137" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K137" s="3"/>
+    </row>
+    <row r="138" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K138" s="3"/>
+    </row>
+    <row r="139" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K139" s="3"/>
+    </row>
+    <row r="140" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K140" s="3"/>
+    </row>
+    <row r="141" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K141" s="3"/>
+    </row>
+    <row r="142" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K142" s="3"/>
+    </row>
+    <row r="143" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K143" s="3"/>
+    </row>
+    <row r="144" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K144" s="3"/>
+    </row>
+    <row r="145" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K145" s="3"/>
+    </row>
+    <row r="146" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K146" s="3"/>
+    </row>
+    <row r="147" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K147" s="3"/>
+    </row>
+    <row r="148" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K148" s="3"/>
+    </row>
+    <row r="149" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K149" s="3"/>
+    </row>
+    <row r="150" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K150" s="3"/>
+    </row>
+    <row r="151" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K151" s="3"/>
+    </row>
+    <row r="152" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K152" s="3"/>
+    </row>
+    <row r="153" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K153" s="3"/>
+    </row>
+    <row r="154" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K154" s="3"/>
+    </row>
+    <row r="155" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K155" s="3"/>
+    </row>
+    <row r="156" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K156" s="3"/>
+    </row>
+    <row r="157" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K157" s="3"/>
+    </row>
+    <row r="158" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K158" s="3"/>
+    </row>
+    <row r="159" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K159" s="3"/>
+    </row>
+    <row r="160" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K160" s="3"/>
+    </row>
+    <row r="161" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K161" s="3"/>
+    </row>
+    <row r="162" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K162" s="3"/>
+    </row>
+    <row r="163" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K163" s="3"/>
+    </row>
+    <row r="164" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K164" s="3"/>
+    </row>
+    <row r="165" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K165" s="3"/>
+    </row>
+    <row r="166" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K166" s="3"/>
+    </row>
+    <row r="167" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K167" s="3"/>
+    </row>
+    <row r="168" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K168" s="3"/>
+    </row>
+    <row r="169" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K169" s="3"/>
+    </row>
+    <row r="170" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K170" s="3"/>
+    </row>
+    <row r="171" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K171" s="3"/>
+    </row>
+    <row r="172" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K172" s="3"/>
+    </row>
+    <row r="173" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K173" s="3"/>
+    </row>
+    <row r="174" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K174" s="3"/>
+    </row>
+    <row r="175" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K175" s="3"/>
+    </row>
+    <row r="176" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K176" s="3"/>
+    </row>
+    <row r="177" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K177" s="3"/>
+    </row>
+    <row r="178" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K178" s="3"/>
+    </row>
+    <row r="179" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K179" s="3"/>
+    </row>
+    <row r="180" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K180" s="3"/>
+    </row>
+    <row r="181" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K181" s="3"/>
+    </row>
+    <row r="182" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K182" s="3"/>
+    </row>
+    <row r="183" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K183" s="3"/>
+    </row>
+    <row r="184" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K184" s="3"/>
+    </row>
+    <row r="185" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K185" s="3"/>
+    </row>
+    <row r="186" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K186" s="3"/>
+    </row>
+    <row r="187" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K187" s="3"/>
+    </row>
+    <row r="188" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K188" s="3"/>
+    </row>
+    <row r="189" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K189" s="3"/>
+    </row>
+    <row r="190" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K190" s="3"/>
+    </row>
+    <row r="191" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K191" s="3"/>
+    </row>
+    <row r="192" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K192" s="3"/>
+    </row>
+    <row r="193" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K193" s="3"/>
+    </row>
+    <row r="194" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K194" s="3"/>
+    </row>
+    <row r="195" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K195" s="3"/>
+    </row>
+    <row r="196" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K196" s="3"/>
+    </row>
+    <row r="197" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K197" s="3"/>
+    </row>
+    <row r="198" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K198" s="3"/>
+    </row>
+    <row r="199" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K199" s="3"/>
+    </row>
+    <row r="200" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K200" s="3"/>
+    </row>
+    <row r="201" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K201" s="3"/>
+    </row>
+    <row r="202" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K202" s="3"/>
+    </row>
+    <row r="203" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K203" s="3"/>
+    </row>
+    <row r="204" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K204" s="3"/>
+    </row>
+    <row r="205" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K205" s="3"/>
+    </row>
+    <row r="206" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K206" s="3"/>
+    </row>
+    <row r="207" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K207" s="3"/>
+    </row>
+    <row r="208" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K208" s="3"/>
+    </row>
+    <row r="209" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K209" s="3"/>
+    </row>
+    <row r="210" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K210" s="3"/>
+    </row>
+    <row r="211" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K211" s="3"/>
+    </row>
+    <row r="212" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K212" s="3"/>
+    </row>
+    <row r="213" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K213" s="3"/>
+    </row>
+    <row r="214" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K214" s="3"/>
+    </row>
+    <row r="215" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K215" s="3"/>
+    </row>
+    <row r="216" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K216" s="3"/>
+    </row>
+    <row r="217" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K217" s="3"/>
+    </row>
+    <row r="218" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K218" s="3"/>
+    </row>
+    <row r="219" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K219" s="3"/>
+    </row>
+    <row r="220" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K220" s="3"/>
+    </row>
+    <row r="221" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K221" s="3"/>
+    </row>
+    <row r="222" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K222" s="3"/>
+    </row>
+    <row r="223" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K223" s="3"/>
+    </row>
+    <row r="224" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K224" s="3"/>
+    </row>
+    <row r="225" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K225" s="3"/>
+    </row>
+    <row r="226" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K226" s="3"/>
+    </row>
+    <row r="227" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K227" s="3"/>
+    </row>
+    <row r="228" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K228" s="3"/>
+    </row>
+    <row r="229" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K229" s="3"/>
+    </row>
+    <row r="230" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K230" s="3"/>
+    </row>
+    <row r="231" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K231" s="3"/>
+    </row>
+    <row r="232" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K232" s="3"/>
+    </row>
+    <row r="233" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K233" s="3"/>
+    </row>
+    <row r="234" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K234" s="3"/>
+    </row>
+    <row r="235" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K235" s="3"/>
+    </row>
+    <row r="236" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K236" s="3"/>
+    </row>
+    <row r="237" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K237" s="3"/>
+    </row>
+    <row r="238" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K238" s="3"/>
+    </row>
+    <row r="239" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K239" s="3"/>
+    </row>
+    <row r="240" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K240" s="3"/>
+    </row>
+    <row r="241" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K241" s="3"/>
+    </row>
+    <row r="242" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K242" s="3"/>
+    </row>
+    <row r="243" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K243" s="3"/>
+    </row>
+    <row r="244" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K244" s="3"/>
+    </row>
+    <row r="245" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K245" s="3"/>
+    </row>
+    <row r="246" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K246" s="3"/>
+    </row>
+    <row r="247" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K247" s="3"/>
+    </row>
+    <row r="248" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K248" s="3"/>
+    </row>
+    <row r="249" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K249" s="3"/>
+    </row>
+    <row r="250" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K250" s="3"/>
+    </row>
+    <row r="251" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K251" s="3"/>
+    </row>
+    <row r="252" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K252" s="3"/>
+    </row>
+    <row r="253" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K253" s="3"/>
+    </row>
+    <row r="254" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K254" s="3"/>
+    </row>
+    <row r="255" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K255" s="3"/>
+    </row>
+    <row r="256" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K256" s="3"/>
+    </row>
+    <row r="257" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K257" s="3"/>
+    </row>
+    <row r="258" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K258" s="3"/>
+    </row>
+    <row r="259" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K259" s="3"/>
+    </row>
+    <row r="260" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K260" s="3"/>
+    </row>
+    <row r="261" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K261" s="3"/>
+    </row>
+    <row r="262" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K262" s="3"/>
+    </row>
+    <row r="263" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K263" s="3"/>
+    </row>
+    <row r="264" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K264" s="3"/>
+    </row>
+    <row r="265" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K265" s="3"/>
+    </row>
+    <row r="266" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K266" s="3"/>
+    </row>
+    <row r="267" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K267" s="3"/>
+    </row>
+    <row r="268" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K268" s="3"/>
+    </row>
+    <row r="269" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K269" s="3"/>
+    </row>
+    <row r="270" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K270" s="3"/>
+    </row>
+    <row r="271" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K271" s="3"/>
+    </row>
+    <row r="272" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K272" s="3"/>
+    </row>
+    <row r="273" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K273" s="3"/>
+    </row>
+    <row r="274" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K274" s="3"/>
+    </row>
+    <row r="275" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K275" s="3"/>
+    </row>
+    <row r="276" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K276" s="3"/>
+    </row>
+    <row r="277" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K277" s="3"/>
+    </row>
+    <row r="278" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K278" s="3"/>
+    </row>
+    <row r="279" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K279" s="3"/>
+    </row>
+    <row r="280" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K280" s="3"/>
+    </row>
+    <row r="281" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K281" s="3"/>
+    </row>
+    <row r="282" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K282" s="3"/>
+    </row>
+    <row r="283" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K283" s="3"/>
+    </row>
+    <row r="284" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K284" s="3"/>
+    </row>
+    <row r="285" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K285" s="3"/>
+    </row>
+    <row r="286" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K286" s="3"/>
+    </row>
+    <row r="287" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K287" s="3"/>
+    </row>
+    <row r="288" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K288" s="3"/>
+    </row>
+    <row r="289" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K289" s="3"/>
+    </row>
+    <row r="290" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K290" s="3"/>
+    </row>
+    <row r="291" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K291" s="3"/>
+    </row>
+    <row r="292" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K292" s="3"/>
+    </row>
+    <row r="293" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K293" s="3"/>
+    </row>
+    <row r="294" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K294" s="3"/>
+    </row>
+    <row r="295" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K295" s="3"/>
+    </row>
+    <row r="296" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K296" s="3"/>
+    </row>
+    <row r="297" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K297" s="3"/>
+    </row>
+    <row r="298" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K298" s="3"/>
+    </row>
+    <row r="299" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K299" s="3"/>
+    </row>
+    <row r="300" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K300" s="3"/>
+    </row>
+    <row r="301" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K301" s="3"/>
+    </row>
+    <row r="302" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K302" s="3"/>
+    </row>
+    <row r="303" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K303" s="3"/>
+    </row>
+    <row r="304" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K304" s="3"/>
+    </row>
+    <row r="305" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K305" s="3"/>
+    </row>
+    <row r="306" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K306" s="3"/>
+    </row>
+    <row r="307" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K307" s="3"/>
+    </row>
+    <row r="308" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K308" s="3"/>
+    </row>
+    <row r="309" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K309" s="3"/>
+    </row>
+    <row r="310" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K310" s="3"/>
+    </row>
+    <row r="311" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K311" s="3"/>
+    </row>
+    <row r="312" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K312" s="3"/>
+    </row>
+    <row r="313" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K313" s="3"/>
+    </row>
+    <row r="314" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K314" s="3"/>
+    </row>
+    <row r="315" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K315" s="3"/>
+    </row>
+    <row r="316" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K316" s="3"/>
+    </row>
+    <row r="317" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K317" s="3"/>
+    </row>
+    <row r="318" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K318" s="3"/>
+    </row>
+    <row r="319" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K319" s="3"/>
+    </row>
+    <row r="320" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K320" s="3"/>
+    </row>
+    <row r="321" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K321" s="3"/>
+    </row>
+    <row r="322" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K322" s="3"/>
+    </row>
+    <row r="323" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K323" s="3"/>
+    </row>
+    <row r="324" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K324" s="3"/>
+    </row>
+    <row r="325" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K325" s="3"/>
+    </row>
+    <row r="326" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K326" s="3"/>
+    </row>
+    <row r="327" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K327" s="3"/>
+    </row>
+    <row r="328" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K328" s="3"/>
+    </row>
+    <row r="329" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K329" s="3"/>
+    </row>
+    <row r="330" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K330" s="3"/>
+    </row>
+    <row r="331" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K331" s="3"/>
+    </row>
+    <row r="332" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K332" s="3"/>
+    </row>
+    <row r="333" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K333" s="3"/>
+    </row>
+    <row r="334" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K334" s="3"/>
+    </row>
+    <row r="335" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K335" s="3"/>
+    </row>
+    <row r="336" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K336" s="3"/>
+    </row>
+    <row r="337" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K337" s="3"/>
+    </row>
+    <row r="338" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K338" s="3"/>
+    </row>
+    <row r="339" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K339" s="3"/>
+    </row>
+    <row r="340" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K340" s="3"/>
+    </row>
+    <row r="341" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K341" s="3"/>
+    </row>
+    <row r="342" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K342" s="3"/>
+    </row>
+    <row r="343" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K343" s="3"/>
+    </row>
+    <row r="344" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K344" s="3"/>
+    </row>
+    <row r="345" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K345" s="3"/>
+    </row>
+    <row r="346" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K346" s="3"/>
+    </row>
+    <row r="347" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K347" s="3"/>
+    </row>
+    <row r="348" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K348" s="3"/>
+    </row>
+    <row r="349" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K349" s="3"/>
+    </row>
+    <row r="350" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K350" s="3"/>
+    </row>
+    <row r="351" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K351" s="3"/>
+    </row>
+    <row r="352" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K352" s="3"/>
+    </row>
+    <row r="353" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K353" s="3"/>
+    </row>
+    <row r="354" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K354" s="3"/>
+    </row>
+    <row r="355" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K355" s="3"/>
+    </row>
+    <row r="356" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K356" s="3"/>
+    </row>
+    <row r="357" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K357" s="3"/>
+    </row>
+    <row r="358" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K358" s="3"/>
+    </row>
+    <row r="359" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K359" s="3"/>
+    </row>
+    <row r="360" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K360" s="3"/>
+    </row>
+    <row r="361" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K361" s="3"/>
+    </row>
+    <row r="362" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K362" s="3"/>
+    </row>
+    <row r="363" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K363" s="3"/>
+    </row>
+    <row r="364" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K364" s="3"/>
+    </row>
+    <row r="365" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K365" s="3"/>
+    </row>
+    <row r="366" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K366" s="3"/>
+    </row>
+    <row r="367" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K367" s="3"/>
+    </row>
+    <row r="368" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K368" s="3"/>
+    </row>
+    <row r="369" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K369" s="3"/>
+    </row>
+    <row r="370" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K370" s="3"/>
+    </row>
+    <row r="371" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K371" s="3"/>
+    </row>
+    <row r="372" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K372" s="3"/>
+    </row>
+    <row r="373" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K373" s="3"/>
+    </row>
+    <row r="374" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K374" s="3"/>
+    </row>
+    <row r="375" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K375" s="3"/>
+    </row>
+    <row r="376" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K376" s="3"/>
+    </row>
+    <row r="377" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K377" s="3"/>
+    </row>
+    <row r="378" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K378" s="3"/>
+    </row>
+    <row r="379" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K379" s="3"/>
+    </row>
+    <row r="380" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K380" s="3"/>
+    </row>
+    <row r="381" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K381" s="3"/>
+    </row>
+    <row r="382" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K382" s="3"/>
+    </row>
+    <row r="383" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K383" s="3"/>
+    </row>
+    <row r="384" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K384" s="3"/>
+    </row>
+    <row r="385" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K385" s="3"/>
+    </row>
+    <row r="386" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K386" s="3"/>
+    </row>
+    <row r="387" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K387" s="3"/>
+    </row>
+    <row r="388" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K388" s="3"/>
+    </row>
+    <row r="389" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K389" s="3"/>
+    </row>
+    <row r="390" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K390" s="3"/>
+    </row>
+    <row r="391" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K391" s="3"/>
+    </row>
+    <row r="392" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K392" s="3"/>
+    </row>
+    <row r="393" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K393" s="3"/>
+    </row>
+    <row r="394" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K394" s="3"/>
+    </row>
+    <row r="395" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K395" s="3"/>
+    </row>
+    <row r="396" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K396" s="3"/>
+    </row>
+    <row r="397" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K397" s="3"/>
+    </row>
+    <row r="398" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K398" s="3"/>
+    </row>
+    <row r="399" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K399" s="3"/>
+    </row>
+    <row r="400" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K400" s="3"/>
+    </row>
+    <row r="401" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K401" s="3"/>
+    </row>
+    <row r="402" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K402" s="3"/>
+    </row>
+    <row r="403" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K403" s="3"/>
+    </row>
+    <row r="404" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K404" s="3"/>
+    </row>
+    <row r="405" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K405" s="3"/>
+    </row>
+    <row r="406" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K406" s="3"/>
+    </row>
+    <row r="407" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K407" s="3"/>
+    </row>
+    <row r="408" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K408" s="3"/>
+    </row>
+    <row r="409" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K409" s="3"/>
+    </row>
+    <row r="410" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K410" s="3"/>
+    </row>
+    <row r="411" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K411" s="3"/>
+    </row>
+    <row r="412" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K412" s="3"/>
+    </row>
+    <row r="413" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K413" s="3"/>
+    </row>
+    <row r="414" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K414" s="3"/>
+    </row>
+    <row r="415" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K415" s="3"/>
+    </row>
+    <row r="416" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K416" s="3"/>
+    </row>
+    <row r="417" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K417" s="3"/>
+    </row>
+    <row r="418" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K418" s="3"/>
+    </row>
+    <row r="419" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K419" s="3"/>
+    </row>
+    <row r="420" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K420" s="3"/>
+    </row>
+    <row r="421" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K421" s="3"/>
+    </row>
+    <row r="422" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K422" s="3"/>
+    </row>
+    <row r="423" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K423" s="3"/>
+    </row>
+    <row r="424" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K424" s="3"/>
+    </row>
+    <row r="425" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K425" s="3"/>
+    </row>
+    <row r="426" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K426" s="3"/>
+    </row>
+    <row r="427" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K427" s="3"/>
+    </row>
+    <row r="428" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K428" s="3"/>
+    </row>
+    <row r="429" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K429" s="3"/>
+    </row>
+    <row r="430" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K430" s="3"/>
+    </row>
+    <row r="431" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K431" s="3"/>
+    </row>
+    <row r="432" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K432" s="3"/>
+    </row>
+    <row r="433" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K433" s="3"/>
+    </row>
+    <row r="434" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K434" s="3"/>
+    </row>
+    <row r="435" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K435" s="3"/>
+    </row>
+    <row r="436" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K436" s="3"/>
+    </row>
+    <row r="437" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K437" s="3"/>
+    </row>
+    <row r="438" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K438" s="3"/>
+    </row>
+    <row r="439" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K439" s="3"/>
+    </row>
+    <row r="440" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K440" s="3"/>
+    </row>
+    <row r="441" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K441" s="3"/>
+    </row>
+    <row r="442" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K442" s="3"/>
+    </row>
+    <row r="443" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K443" s="3"/>
+    </row>
+    <row r="444" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K444" s="3"/>
+    </row>
+    <row r="445" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K445" s="3"/>
+    </row>
+    <row r="446" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K446" s="3"/>
+    </row>
+    <row r="447" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K447" s="3"/>
+    </row>
+    <row r="448" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K448" s="3"/>
+    </row>
+    <row r="449" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K449" s="3"/>
+    </row>
+    <row r="450" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K450" s="3"/>
+    </row>
+    <row r="451" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K451" s="3"/>
+    </row>
+    <row r="452" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K452" s="3"/>
+    </row>
+    <row r="453" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K453" s="3"/>
+    </row>
+    <row r="454" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K454" s="3"/>
+    </row>
+    <row r="455" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K455" s="3"/>
+    </row>
+    <row r="456" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K456" s="3"/>
+    </row>
+    <row r="457" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K457" s="3"/>
+    </row>
+    <row r="458" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K458" s="3"/>
+    </row>
+    <row r="459" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K459" s="3"/>
+    </row>
+    <row r="460" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K460" s="3"/>
+    </row>
+    <row r="461" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K461" s="3"/>
+    </row>
+    <row r="462" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K462" s="3"/>
+    </row>
+    <row r="463" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K463" s="3"/>
+    </row>
+    <row r="464" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K464" s="3"/>
+    </row>
+    <row r="465" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K465" s="3"/>
+    </row>
+    <row r="466" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K466" s="3"/>
+    </row>
+    <row r="467" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K467" s="3"/>
+    </row>
+    <row r="468" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K468" s="3"/>
+    </row>
+    <row r="469" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K469" s="3"/>
+    </row>
+    <row r="470" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K470" s="3"/>
+    </row>
+    <row r="471" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K471" s="3"/>
+    </row>
+    <row r="472" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K472" s="3"/>
+    </row>
+    <row r="473" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K473" s="3"/>
+    </row>
+    <row r="474" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K474" s="3"/>
+    </row>
+    <row r="475" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K475" s="3"/>
+    </row>
+    <row r="476" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K476" s="3"/>
+    </row>
+    <row r="477" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K477" s="3"/>
+    </row>
+    <row r="478" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K478" s="3"/>
+    </row>
+    <row r="479" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K479" s="3"/>
+    </row>
+    <row r="480" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K480" s="3"/>
+    </row>
+    <row r="481" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K481" s="3"/>
+    </row>
+    <row r="482" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K482" s="3"/>
+    </row>
+    <row r="483" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K483" s="3"/>
+    </row>
+    <row r="484" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K484" s="3"/>
+    </row>
+    <row r="485" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K485" s="3"/>
+    </row>
+    <row r="486" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K486" s="3"/>
+    </row>
+    <row r="487" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K487" s="3"/>
+    </row>
+    <row r="488" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K488" s="3"/>
+    </row>
+    <row r="489" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K489" s="3"/>
+    </row>
+    <row r="490" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K490" s="3"/>
+    </row>
+    <row r="491" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K491" s="3"/>
+    </row>
+    <row r="492" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K492" s="3"/>
+    </row>
+    <row r="493" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K493" s="3"/>
+    </row>
+    <row r="494" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K494" s="3"/>
+    </row>
+    <row r="495" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K495" s="3"/>
+    </row>
+    <row r="496" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K496" s="3"/>
+    </row>
+    <row r="497" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K497" s="3"/>
+    </row>
+    <row r="498" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K498" s="3"/>
+    </row>
+    <row r="499" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K499" s="3"/>
+    </row>
+    <row r="500" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K500" s="3"/>
+    </row>
+    <row r="501" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K501" s="3"/>
+    </row>
+    <row r="502" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K502" s="3"/>
+    </row>
+    <row r="503" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K503" s="3"/>
+    </row>
+    <row r="504" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K504" s="3"/>
+    </row>
+    <row r="505" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K505" s="3"/>
+    </row>
+    <row r="506" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K506" s="3"/>
+    </row>
+    <row r="507" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K507" s="3"/>
+    </row>
+    <row r="508" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K508" s="3"/>
+    </row>
+    <row r="509" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K509" s="3"/>
+    </row>
+    <row r="510" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K510" s="3"/>
+    </row>
+    <row r="511" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K511" s="3"/>
+    </row>
+    <row r="512" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K512" s="3"/>
+    </row>
+    <row r="513" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K513" s="3"/>
+    </row>
+    <row r="514" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K514" s="3"/>
+    </row>
+    <row r="515" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K515" s="3"/>
+    </row>
+    <row r="516" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K516" s="3"/>
+    </row>
+    <row r="517" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K517" s="3"/>
+    </row>
+    <row r="518" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K518" s="3"/>
+    </row>
+    <row r="519" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K519" s="3"/>
+    </row>
+    <row r="520" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K520" s="3"/>
+    </row>
+    <row r="521" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K521" s="3"/>
+    </row>
+    <row r="522" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K522" s="3"/>
+    </row>
+    <row r="523" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K523" s="3"/>
+    </row>
+    <row r="524" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K524" s="3"/>
+    </row>
+    <row r="525" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K525" s="3"/>
+    </row>
+    <row r="526" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K526" s="3"/>
+    </row>
+    <row r="527" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K527" s="3"/>
+    </row>
+    <row r="528" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K528" s="3"/>
+    </row>
+    <row r="529" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K529" s="3"/>
+    </row>
+    <row r="530" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K530" s="3"/>
+    </row>
+    <row r="531" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K531" s="3"/>
+    </row>
+    <row r="532" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K532" s="3"/>
+    </row>
+    <row r="533" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K533" s="3"/>
+    </row>
+    <row r="534" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K534" s="3"/>
+    </row>
+    <row r="535" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K535" s="3"/>
+    </row>
+    <row r="536" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K536" s="3"/>
+    </row>
+    <row r="537" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K537" s="3"/>
+    </row>
+    <row r="538" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K538" s="3"/>
+    </row>
+    <row r="539" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K539" s="3"/>
+    </row>
+    <row r="540" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K540" s="3"/>
+    </row>
+    <row r="541" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K541" s="3"/>
+    </row>
+    <row r="542" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K542" s="3"/>
+    </row>
+    <row r="543" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K543" s="3"/>
+    </row>
+    <row r="544" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K544" s="3"/>
+    </row>
+    <row r="545" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K545" s="3"/>
+    </row>
+    <row r="546" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K546" s="3"/>
+    </row>
+    <row r="547" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K547" s="3"/>
+    </row>
+    <row r="548" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K548" s="3"/>
+    </row>
+    <row r="549" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K549" s="3"/>
+    </row>
+    <row r="550" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K550" s="3"/>
+    </row>
+    <row r="551" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K551" s="3"/>
+    </row>
+    <row r="552" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K552" s="3"/>
+    </row>
+    <row r="553" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K553" s="3"/>
+    </row>
+    <row r="554" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K554" s="3"/>
+    </row>
+    <row r="555" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K555" s="3"/>
+    </row>
+    <row r="556" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K556" s="3"/>
+    </row>
+    <row r="557" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K557" s="3"/>
+    </row>
+    <row r="558" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K558" s="3"/>
+    </row>
+    <row r="559" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K559" s="3"/>
+    </row>
+    <row r="560" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K560" s="3"/>
+    </row>
+    <row r="561" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K561" s="3"/>
+    </row>
+    <row r="562" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K562" s="3"/>
+    </row>
+    <row r="563" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K563" s="3"/>
+    </row>
+    <row r="564" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K564" s="3"/>
+    </row>
+    <row r="565" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K565" s="3"/>
+    </row>
+    <row r="566" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K566" s="3"/>
+    </row>
+    <row r="567" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K567" s="3"/>
+    </row>
+    <row r="568" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K568" s="3"/>
+    </row>
+    <row r="569" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K569" s="3"/>
+    </row>
+    <row r="570" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K570" s="3"/>
+    </row>
+    <row r="571" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K571" s="3"/>
+    </row>
+    <row r="572" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K572" s="3"/>
+    </row>
+    <row r="573" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K573" s="3"/>
+    </row>
+    <row r="574" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K574" s="3"/>
+    </row>
+    <row r="575" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K575" s="3"/>
+    </row>
+    <row r="576" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K576" s="3"/>
+    </row>
+    <row r="577" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K577" s="3"/>
+    </row>
+    <row r="578" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K578" s="3"/>
+    </row>
+    <row r="579" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K579" s="3"/>
+    </row>
+    <row r="580" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K580" s="3"/>
+    </row>
+    <row r="581" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K581" s="3"/>
+    </row>
+    <row r="582" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K582" s="3"/>
+    </row>
+    <row r="583" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K583" s="3"/>
+    </row>
+    <row r="584" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K584" s="3"/>
+    </row>
+    <row r="585" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K585" s="3"/>
+    </row>
+    <row r="586" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K586" s="3"/>
+    </row>
+    <row r="587" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K587" s="3"/>
+    </row>
+    <row r="588" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K588" s="3"/>
+    </row>
+    <row r="589" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K589" s="3"/>
+    </row>
+    <row r="590" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K590" s="3"/>
+    </row>
+    <row r="591" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K591" s="3"/>
+    </row>
+    <row r="592" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K592" s="3"/>
+    </row>
+    <row r="593" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K593" s="3"/>
+    </row>
+    <row r="594" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K594" s="3"/>
+    </row>
+    <row r="595" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K595" s="3"/>
+    </row>
+    <row r="596" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K596" s="3"/>
+    </row>
+    <row r="597" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K597" s="3"/>
+    </row>
+    <row r="598" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K598" s="3"/>
+    </row>
+    <row r="599" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K599" s="3"/>
+    </row>
+    <row r="600" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K600" s="3"/>
+    </row>
+    <row r="601" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K601" s="3"/>
+    </row>
+    <row r="602" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K602" s="3"/>
+    </row>
+    <row r="603" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K603" s="3"/>
+    </row>
+    <row r="604" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K604" s="3"/>
+    </row>
+    <row r="605" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K605" s="3"/>
+    </row>
+    <row r="606" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K606" s="3"/>
+    </row>
+    <row r="607" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K607" s="3"/>
+    </row>
+    <row r="608" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K608" s="3"/>
+    </row>
+    <row r="609" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K609" s="3"/>
+    </row>
+    <row r="610" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K610" s="3"/>
+    </row>
+    <row r="611" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K611" s="3"/>
+    </row>
+    <row r="612" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K612" s="3"/>
+    </row>
+    <row r="613" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K613" s="3"/>
+    </row>
+    <row r="614" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K614" s="3"/>
+    </row>
+    <row r="615" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K615" s="3"/>
+    </row>
+    <row r="616" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K616" s="3"/>
+    </row>
+    <row r="617" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K617" s="3"/>
+    </row>
+    <row r="618" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K618" s="3"/>
+    </row>
+    <row r="619" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K619" s="3"/>
+    </row>
+    <row r="620" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K620" s="3"/>
+    </row>
+    <row r="621" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K621" s="3"/>
+    </row>
+    <row r="622" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K622" s="3"/>
+    </row>
+    <row r="623" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K623" s="3"/>
+    </row>
+    <row r="624" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K624" s="3"/>
+    </row>
+    <row r="625" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K625" s="3"/>
+    </row>
+    <row r="626" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K626" s="3"/>
+    </row>
+    <row r="627" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K627" s="3"/>
+    </row>
+    <row r="628" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K628" s="3"/>
+    </row>
+    <row r="629" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K629" s="3"/>
+    </row>
+    <row r="630" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K630" s="3"/>
+    </row>
+    <row r="631" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K631" s="3"/>
+    </row>
+    <row r="632" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K632" s="3"/>
+    </row>
+    <row r="633" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K633" s="3"/>
+    </row>
+    <row r="634" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K634" s="3"/>
+    </row>
+    <row r="635" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K635" s="3"/>
+    </row>
+    <row r="636" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K636" s="3"/>
+    </row>
+    <row r="637" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K637" s="3"/>
+    </row>
+    <row r="638" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K638" s="3"/>
+    </row>
+    <row r="639" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K639" s="3"/>
+    </row>
+    <row r="640" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K640" s="3"/>
+    </row>
+    <row r="641" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K641" s="3"/>
+    </row>
+    <row r="642" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K642" s="3"/>
+    </row>
+    <row r="643" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K643" s="3"/>
+    </row>
+    <row r="644" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K644" s="3"/>
+    </row>
+    <row r="645" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K645" s="3"/>
+    </row>
+    <row r="646" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K646" s="3"/>
+    </row>
+    <row r="647" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K647" s="3"/>
+    </row>
+    <row r="648" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K648" s="3"/>
+    </row>
+    <row r="649" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K649" s="3"/>
+    </row>
+    <row r="650" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K650" s="3"/>
+    </row>
+    <row r="651" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K651" s="3"/>
+    </row>
+    <row r="652" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K652" s="3"/>
+    </row>
+    <row r="653" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K653" s="3"/>
+    </row>
+    <row r="654" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K654" s="3"/>
+    </row>
+    <row r="655" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K655" s="3"/>
+    </row>
+    <row r="656" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K656" s="3"/>
+    </row>
+    <row r="657" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K657" s="3"/>
+    </row>
+    <row r="658" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K658" s="3"/>
+    </row>
+    <row r="659" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K659" s="3"/>
+    </row>
+    <row r="660" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K660" s="3"/>
+    </row>
+    <row r="661" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K661" s="3"/>
+    </row>
+    <row r="662" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K662" s="3"/>
+    </row>
+    <row r="663" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K663" s="3"/>
+    </row>
+    <row r="664" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K664" s="3"/>
+    </row>
+    <row r="665" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K665" s="3"/>
+    </row>
+    <row r="666" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K666" s="3"/>
+    </row>
+    <row r="667" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K667" s="3"/>
+    </row>
+    <row r="668" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K668" s="3"/>
+    </row>
+    <row r="669" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K669" s="3"/>
+    </row>
+    <row r="670" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K670" s="3"/>
+    </row>
+    <row r="671" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K671" s="3"/>
+    </row>
+    <row r="672" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K672" s="3"/>
+    </row>
+    <row r="673" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K673" s="3"/>
+    </row>
+    <row r="674" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K674" s="3"/>
+    </row>
+    <row r="675" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K675" s="3"/>
+    </row>
+    <row r="676" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K676" s="3"/>
+    </row>
+    <row r="677" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K677" s="3"/>
+    </row>
+    <row r="678" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K678" s="3"/>
+    </row>
+    <row r="679" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K679" s="3"/>
+    </row>
+    <row r="680" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K680" s="3"/>
+    </row>
+    <row r="681" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K681" s="3"/>
+    </row>
+    <row r="682" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K682" s="3"/>
+    </row>
+    <row r="683" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K683" s="3"/>
+    </row>
+    <row r="684" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K684" s="3"/>
+    </row>
+    <row r="685" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K685" s="3"/>
+    </row>
+    <row r="686" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K686" s="3"/>
+    </row>
+    <row r="687" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K687" s="3"/>
+    </row>
+    <row r="688" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K688" s="3"/>
+    </row>
+    <row r="689" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K689" s="3"/>
+    </row>
+    <row r="690" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K690" s="3"/>
+    </row>
+    <row r="691" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K691" s="3"/>
+    </row>
+    <row r="692" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K692" s="3"/>
+    </row>
+    <row r="693" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K693" s="3"/>
+    </row>
+    <row r="694" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K694" s="3"/>
+    </row>
+    <row r="695" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K695" s="3"/>
+    </row>
+    <row r="696" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K696" s="3"/>
+    </row>
+    <row r="697" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K697" s="3"/>
+    </row>
+    <row r="698" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K698" s="3"/>
+    </row>
+    <row r="699" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K699" s="3"/>
+    </row>
+    <row r="700" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K700" s="3"/>
+    </row>
+    <row r="701" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K701" s="3"/>
+    </row>
+    <row r="702" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K702" s="3"/>
+    </row>
+    <row r="703" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K703" s="3"/>
+    </row>
+    <row r="704" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K704" s="3"/>
+    </row>
+    <row r="705" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K705" s="3"/>
+    </row>
+    <row r="706" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K706" s="3"/>
+    </row>
+    <row r="707" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K707" s="3"/>
+    </row>
+    <row r="708" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K708" s="3"/>
+    </row>
+    <row r="709" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K709" s="3"/>
+    </row>
+    <row r="710" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K710" s="3"/>
+    </row>
+    <row r="711" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K711" s="3"/>
+    </row>
+    <row r="712" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K712" s="3"/>
+    </row>
+    <row r="713" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K713" s="3"/>
+    </row>
+    <row r="714" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K714" s="3"/>
+    </row>
+    <row r="715" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K715" s="3"/>
+    </row>
+    <row r="716" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K716" s="3"/>
+    </row>
+    <row r="717" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K717" s="3"/>
+    </row>
+    <row r="718" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K718" s="3"/>
+    </row>
+    <row r="719" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K719" s="3"/>
+    </row>
+    <row r="720" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K720" s="3"/>
+    </row>
+    <row r="721" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K721" s="3"/>
+    </row>
+    <row r="722" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K722" s="3"/>
+    </row>
+    <row r="723" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K723" s="3"/>
+    </row>
+    <row r="724" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K724" s="3"/>
+    </row>
+    <row r="725" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K725" s="3"/>
+    </row>
+    <row r="726" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K726" s="3"/>
+    </row>
+    <row r="727" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K727" s="3"/>
+    </row>
+    <row r="728" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K728" s="3"/>
+    </row>
+    <row r="729" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K729" s="3"/>
+    </row>
+    <row r="730" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K730" s="3"/>
+    </row>
+    <row r="731" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K731" s="3"/>
+    </row>
+    <row r="732" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K732" s="3"/>
+    </row>
+    <row r="733" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K733" s="3"/>
+    </row>
+    <row r="734" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K734" s="3"/>
+    </row>
+    <row r="735" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K735" s="3"/>
+    </row>
+    <row r="736" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K736" s="3"/>
+    </row>
+    <row r="737" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K737" s="3"/>
+    </row>
+    <row r="738" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K738" s="3"/>
+    </row>
+    <row r="739" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K739" s="3"/>
+    </row>
+    <row r="740" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K740" s="3"/>
+    </row>
+    <row r="741" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K741" s="3"/>
+    </row>
+    <row r="742" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K742" s="3"/>
+    </row>
+    <row r="743" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K743" s="3"/>
+    </row>
+    <row r="744" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K744" s="3"/>
+    </row>
+    <row r="745" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K745" s="3"/>
+    </row>
+    <row r="746" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K746" s="3"/>
+    </row>
+    <row r="747" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K747" s="3"/>
+    </row>
+    <row r="748" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K748" s="3"/>
+    </row>
+    <row r="749" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K749" s="3"/>
+    </row>
+    <row r="750" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K750" s="3"/>
+    </row>
+    <row r="751" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K751" s="3"/>
+    </row>
+    <row r="752" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K752" s="3"/>
+    </row>
+    <row r="753" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K753" s="3"/>
+    </row>
+    <row r="754" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K754" s="3"/>
+    </row>
+    <row r="755" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K755" s="3"/>
+    </row>
+    <row r="756" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K756" s="3"/>
+    </row>
+    <row r="757" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K757" s="3"/>
+    </row>
+    <row r="758" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K758" s="3"/>
+    </row>
+    <row r="759" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K759" s="3"/>
+    </row>
+    <row r="760" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K760" s="3"/>
+    </row>
+    <row r="761" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K761" s="3"/>
+    </row>
+    <row r="762" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K762" s="3"/>
+    </row>
+    <row r="763" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K763" s="3"/>
+    </row>
+    <row r="764" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K764" s="3"/>
+    </row>
+    <row r="765" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K765" s="3"/>
+    </row>
+    <row r="766" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K766" s="3"/>
+    </row>
+    <row r="767" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K767" s="3"/>
+    </row>
+    <row r="768" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K768" s="3"/>
+    </row>
+    <row r="769" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K769" s="3"/>
+    </row>
+    <row r="770" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K770" s="3"/>
+    </row>
+    <row r="771" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K771" s="3"/>
+    </row>
+    <row r="772" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K772" s="3"/>
+    </row>
+    <row r="773" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K773" s="3"/>
+    </row>
+    <row r="774" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K774" s="3"/>
+    </row>
+    <row r="775" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K775" s="3"/>
+    </row>
+    <row r="776" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K776" s="3"/>
+    </row>
+    <row r="777" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K777" s="3"/>
+    </row>
+    <row r="778" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K778" s="3"/>
+    </row>
+    <row r="779" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K779" s="3"/>
+    </row>
+    <row r="780" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K780" s="3"/>
+    </row>
+    <row r="781" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K781" s="3"/>
+    </row>
+    <row r="782" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K782" s="3"/>
+    </row>
+    <row r="783" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K783" s="3"/>
+    </row>
+    <row r="784" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K784" s="3"/>
+    </row>
+    <row r="785" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K785" s="3"/>
+    </row>
+    <row r="786" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K786" s="3"/>
+    </row>
+    <row r="787" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K787" s="3"/>
+    </row>
+    <row r="788" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K788" s="3"/>
+    </row>
+    <row r="789" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K789" s="3"/>
+    </row>
+    <row r="790" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K790" s="3"/>
+    </row>
+    <row r="791" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K791" s="3"/>
+    </row>
+    <row r="792" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K792" s="3"/>
+    </row>
+    <row r="793" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K793" s="3"/>
+    </row>
+    <row r="794" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K794" s="3"/>
+    </row>
+    <row r="795" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K795" s="3"/>
+    </row>
+    <row r="796" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K796" s="3"/>
+    </row>
+    <row r="797" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K797" s="3"/>
+    </row>
+    <row r="798" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K798" s="3"/>
+    </row>
+    <row r="799" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K799" s="3"/>
+    </row>
+    <row r="800" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K800" s="3"/>
+    </row>
+    <row r="801" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K801" s="3"/>
+    </row>
+    <row r="802" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K802" s="3"/>
+    </row>
+    <row r="803" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K803" s="3"/>
+    </row>
+    <row r="804" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K804" s="3"/>
+    </row>
+    <row r="805" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K805" s="3"/>
+    </row>
+    <row r="806" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K806" s="3"/>
+    </row>
+    <row r="807" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K807" s="3"/>
+    </row>
+    <row r="808" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K808" s="3"/>
+    </row>
+    <row r="809" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K809" s="3"/>
+    </row>
+    <row r="810" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K810" s="3"/>
+    </row>
+    <row r="811" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K811" s="3"/>
+    </row>
+    <row r="812" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K812" s="3"/>
+    </row>
+    <row r="813" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K813" s="3"/>
+    </row>
+    <row r="814" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K814" s="3"/>
+    </row>
+    <row r="815" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K815" s="3"/>
+    </row>
+    <row r="816" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K816" s="3"/>
+    </row>
+    <row r="817" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K817" s="3"/>
+    </row>
+    <row r="818" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K818" s="3"/>
+    </row>
+    <row r="819" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K819" s="3"/>
+    </row>
+    <row r="820" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K820" s="3"/>
+    </row>
+    <row r="821" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K821" s="3"/>
+    </row>
+    <row r="822" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K822" s="3"/>
+    </row>
+    <row r="823" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K823" s="3"/>
+    </row>
+    <row r="824" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K824" s="3"/>
+    </row>
+    <row r="825" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K825" s="3"/>
+    </row>
+    <row r="826" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K826" s="3"/>
+    </row>
+    <row r="827" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K827" s="3"/>
+    </row>
+    <row r="828" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K828" s="3"/>
+    </row>
+    <row r="829" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K829" s="3"/>
+    </row>
+    <row r="830" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K830" s="3"/>
+    </row>
+    <row r="831" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K831" s="3"/>
+    </row>
+    <row r="832" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K832" s="3"/>
+    </row>
+    <row r="833" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K833" s="3"/>
+    </row>
+    <row r="834" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K834" s="3"/>
+    </row>
+    <row r="835" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K835" s="3"/>
+    </row>
+    <row r="836" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K836" s="3"/>
+    </row>
+    <row r="837" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K837" s="3"/>
+    </row>
+    <row r="838" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K838" s="3"/>
+    </row>
+    <row r="839" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K839" s="3"/>
+    </row>
+    <row r="840" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K840" s="3"/>
+    </row>
+    <row r="841" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K841" s="3"/>
+    </row>
+    <row r="842" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K842" s="3"/>
+    </row>
+    <row r="843" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K843" s="3"/>
+    </row>
+    <row r="844" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K844" s="3"/>
+    </row>
+    <row r="845" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K845" s="3"/>
+    </row>
+    <row r="846" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K846" s="3"/>
+    </row>
+    <row r="847" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K847" s="3"/>
+    </row>
+    <row r="848" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K848" s="3"/>
+    </row>
+    <row r="849" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K849" s="3"/>
+    </row>
+    <row r="850" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K850" s="3"/>
+    </row>
+    <row r="851" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K851" s="3"/>
+    </row>
+    <row r="852" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K852" s="3"/>
+    </row>
+    <row r="853" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K853" s="3"/>
+    </row>
+    <row r="854" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K854" s="3"/>
+    </row>
+    <row r="855" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K855" s="3"/>
+    </row>
+    <row r="856" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K856" s="3"/>
+    </row>
+    <row r="857" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K857" s="3"/>
+    </row>
+    <row r="858" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K858" s="3"/>
+    </row>
+    <row r="859" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K859" s="3"/>
+    </row>
+    <row r="860" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K860" s="3"/>
+    </row>
+    <row r="861" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K861" s="3"/>
+    </row>
+    <row r="862" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K862" s="3"/>
+    </row>
+    <row r="863" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K863" s="3"/>
+    </row>
+    <row r="864" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K864" s="3"/>
+    </row>
+    <row r="865" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K865" s="3"/>
+    </row>
+    <row r="866" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K866" s="3"/>
+    </row>
+    <row r="867" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K867" s="3"/>
+    </row>
+    <row r="868" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K868" s="3"/>
+    </row>
+    <row r="869" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K869" s="3"/>
+    </row>
+    <row r="870" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K870" s="3"/>
+    </row>
+    <row r="871" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K871" s="3"/>
+    </row>
+    <row r="872" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K872" s="3"/>
+    </row>
+    <row r="873" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K873" s="3"/>
+    </row>
+    <row r="874" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K874" s="3"/>
+    </row>
+    <row r="875" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K875" s="3"/>
+    </row>
+    <row r="876" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K876" s="3"/>
+    </row>
+    <row r="877" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K877" s="3"/>
+    </row>
+    <row r="878" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K878" s="3"/>
+    </row>
+    <row r="879" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K879" s="3"/>
+    </row>
+    <row r="880" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K880" s="3"/>
+    </row>
+    <row r="881" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K881" s="3"/>
+    </row>
+    <row r="882" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K882" s="3"/>
+    </row>
+    <row r="883" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K883" s="3"/>
+    </row>
+    <row r="884" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K884" s="3"/>
+    </row>
+    <row r="885" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K885" s="3"/>
+    </row>
+    <row r="886" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K886" s="3"/>
+    </row>
+    <row r="887" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K887" s="3"/>
+    </row>
+    <row r="888" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K888" s="3"/>
+    </row>
+    <row r="889" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K889" s="3"/>
+    </row>
+    <row r="890" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K890" s="3"/>
+    </row>
+    <row r="891" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K891" s="3"/>
+    </row>
+    <row r="892" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K892" s="3"/>
+    </row>
+    <row r="893" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K893" s="3"/>
+    </row>
+    <row r="894" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K894" s="3"/>
+    </row>
+    <row r="895" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K895" s="3"/>
+    </row>
+    <row r="896" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K896" s="3"/>
+    </row>
+    <row r="897" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K897" s="3"/>
+    </row>
+    <row r="898" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K898" s="3"/>
+    </row>
+    <row r="899" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K899" s="3"/>
+    </row>
+    <row r="900" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K900" s="3"/>
+    </row>
+    <row r="901" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K901" s="3"/>
+    </row>
+    <row r="902" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K902" s="3"/>
+    </row>
+    <row r="903" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K903" s="3"/>
+    </row>
+    <row r="904" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K904" s="3"/>
+    </row>
+    <row r="905" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K905" s="3"/>
+    </row>
+    <row r="906" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K906" s="3"/>
+    </row>
+    <row r="907" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K907" s="3"/>
+    </row>
+    <row r="908" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K908" s="3"/>
+    </row>
+    <row r="909" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K909" s="3"/>
+    </row>
+    <row r="910" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K910" s="3"/>
+    </row>
+    <row r="911" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K911" s="3"/>
+    </row>
+    <row r="912" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K912" s="3"/>
+    </row>
+    <row r="913" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K913" s="3"/>
+    </row>
+    <row r="914" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K914" s="3"/>
+    </row>
+    <row r="915" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K915" s="3"/>
+    </row>
+    <row r="916" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K916" s="3"/>
+    </row>
+    <row r="917" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K917" s="3"/>
+    </row>
+    <row r="918" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K918" s="3"/>
+    </row>
+    <row r="919" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K919" s="3"/>
+    </row>
+    <row r="920" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K920" s="3"/>
+    </row>
+    <row r="921" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K921" s="3"/>
+    </row>
+    <row r="922" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K922" s="3"/>
+    </row>
+    <row r="923" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K923" s="3"/>
+    </row>
+    <row r="924" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K924" s="3"/>
+    </row>
+    <row r="925" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K925" s="3"/>
+    </row>
+    <row r="926" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K926" s="3"/>
+    </row>
+    <row r="927" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K927" s="3"/>
+    </row>
+    <row r="928" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K928" s="3"/>
+    </row>
+    <row r="929" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K929" s="3"/>
+    </row>
+    <row r="930" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K930" s="3"/>
+    </row>
+    <row r="931" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K931" s="3"/>
+    </row>
+    <row r="932" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K932" s="3"/>
+    </row>
+    <row r="933" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K933" s="3"/>
+    </row>
+    <row r="934" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K934" s="3"/>
+    </row>
+    <row r="935" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K935" s="3"/>
+    </row>
+    <row r="936" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K936" s="3"/>
+    </row>
+    <row r="937" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K937" s="3"/>
+    </row>
+    <row r="938" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K938" s="3"/>
+    </row>
+    <row r="939" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K939" s="3"/>
+    </row>
+    <row r="940" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K940" s="3"/>
+    </row>
+    <row r="941" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K941" s="3"/>
+    </row>
+    <row r="942" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K942" s="3"/>
+    </row>
+    <row r="943" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K943" s="3"/>
+    </row>
+    <row r="944" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K944" s="3"/>
+    </row>
+    <row r="945" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K945" s="3"/>
+    </row>
+    <row r="946" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K946" s="3"/>
+    </row>
+    <row r="947" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K947" s="3"/>
+    </row>
+    <row r="948" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K948" s="3"/>
+    </row>
+    <row r="949" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K949" s="3"/>
+    </row>
+    <row r="950" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K950" s="3"/>
+    </row>
+    <row r="951" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K951" s="3"/>
+    </row>
+    <row r="952" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K952" s="3"/>
+    </row>
+    <row r="953" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K953" s="3"/>
+    </row>
+    <row r="954" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K954" s="3"/>
+    </row>
+    <row r="955" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K955" s="3"/>
+    </row>
+    <row r="956" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K956" s="3"/>
+    </row>
+    <row r="957" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K957" s="3"/>
+    </row>
+    <row r="958" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K958" s="3"/>
+    </row>
+    <row r="959" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K959" s="3"/>
+    </row>
+    <row r="960" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K960" s="3"/>
+    </row>
+    <row r="961" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K961" s="3"/>
+    </row>
+    <row r="962" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K962" s="3"/>
+    </row>
+    <row r="963" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K963" s="3"/>
+    </row>
+    <row r="964" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K964" s="3"/>
+    </row>
+    <row r="965" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K965" s="3"/>
+    </row>
+    <row r="966" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K966" s="3"/>
+    </row>
+    <row r="967" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K967" s="3"/>
+    </row>
+    <row r="968" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K968" s="3"/>
+    </row>
+    <row r="969" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K969" s="3"/>
+    </row>
+    <row r="970" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K970" s="3"/>
+    </row>
+    <row r="971" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K971" s="3"/>
+    </row>
+    <row r="972" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K972" s="3"/>
+    </row>
+    <row r="973" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K973" s="3"/>
+    </row>
+    <row r="974" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K974" s="3"/>
+    </row>
+    <row r="975" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K975" s="3"/>
+    </row>
+    <row r="976" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K976" s="3"/>
+    </row>
+    <row r="977" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K977" s="3"/>
+    </row>
+    <row r="978" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K978" s="3"/>
+    </row>
+    <row r="979" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K979" s="3"/>
+    </row>
+    <row r="980" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K980" s="3"/>
+    </row>
+    <row r="981" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K981" s="3"/>
+    </row>
+    <row r="982" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K982" s="3"/>
+    </row>
+    <row r="983" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K983" s="3"/>
+    </row>
+    <row r="984" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K984" s="3"/>
+    </row>
+    <row r="985" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K985" s="3"/>
+    </row>
+    <row r="986" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K986" s="3"/>
+    </row>
+    <row r="987" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K987" s="3"/>
+    </row>
+    <row r="988" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K988" s="3"/>
+    </row>
+    <row r="989" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K989" s="3"/>
+    </row>
+    <row r="990" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K990" s="3"/>
+    </row>
+    <row r="991" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K991" s="3"/>
+    </row>
+    <row r="992" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K992" s="3"/>
+    </row>
+    <row r="993" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K993" s="3"/>
+    </row>
+    <row r="994" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K994" s="3"/>
+    </row>
+    <row r="995" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K995" s="3"/>
+    </row>
+    <row r="996" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K996" s="3"/>
+    </row>
+    <row r="997" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K997" s="3"/>
+    </row>
+    <row r="998" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K998" s="3"/>
+    </row>
+    <row r="999" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K999" s="3"/>
+    </row>
+    <row r="1000" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K1000" s="3"/>
+    </row>
+    <row r="1001" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K1001" s="3"/>
+    </row>
+    <row r="1002" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K1002" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1002">
+      <formula1>"SSS 1 - Sciences 1,SSS 1 - Sciences 2,SSS 1 - SOS,SSS 1 - Art,SSS 2 - Sciences 1,SSS 2 - Sciences 2,SSS 2 - SOS,SSS 2 - Art,SSS 3 - Sciences 1,SSS 3 - Sciences 2,SSS 3 - SOS,SSS 3 - Art"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="J2" r:id="rId2"/>
+    <hyperlink ref="J3" r:id="rId3"/>
+    <hyperlink ref="J4" r:id="rId4"/>
+    <hyperlink ref="C3" r:id="rId5"/>
+    <hyperlink ref="C4" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>